--- a/docs/trim3/1.1_Presupuesto.xlsx
+++ b/docs/trim3/1.1_Presupuesto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Tester</t>
+  </si>
+  <si>
+    <t>Soporte</t>
   </si>
   <si>
     <t>Consultoria</t>
@@ -171,7 +174,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,33 +199,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,17 +229,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,6 +253,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,7 +291,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -295,57 +337,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -356,19 +352,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,25 +520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,133 +532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,6 +902,80 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -924,71 +994,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -997,164 +1002,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1187,6 +1183,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1248,6 +1247,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1603,10 +1608,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D18" sqref="D18:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4266666666667" defaultRowHeight="15"/>
@@ -1630,8 +1635,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="15.75"/>
-    <row r="4" customHeight="1" spans="2:12">
+    <row r="3" ht="12" customHeight="1"/>
+    <row r="4" ht="16" customHeight="1" spans="2:12">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1641,10 +1646,10 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1654,40 +1659,40 @@
       <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="42" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" ht="19" customHeight="1" spans="2:12">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27" t="s">
+      <c r="F5" s="27"/>
+      <c r="G5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="29">
         <v>5</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="43">
         <v>4398900</v>
       </c>
-      <c r="K5" s="41"/>
-      <c r="L5" s="42">
+      <c r="K5" s="44"/>
+      <c r="L5" s="45">
         <f>J5*H5</f>
         <v>21994500</v>
       </c>
@@ -1696,52 +1701,52 @@
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30" t="s">
+      <c r="F6" s="30"/>
+      <c r="G6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="32">
         <v>1</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="46">
         <v>208519</v>
       </c>
-      <c r="K6" s="44">
-        <v>30</v>
-      </c>
-      <c r="L6" s="45">
-        <f>J6*H6</f>
-        <v>208519</v>
+      <c r="K6" s="47">
+        <v>160</v>
+      </c>
+      <c r="L6" s="48">
+        <f>J6*K6</f>
+        <v>33363040</v>
       </c>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30" t="s">
+      <c r="F7" s="30"/>
+      <c r="G7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="32">
         <v>5</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="46">
         <v>192900</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="45">
+      <c r="K7" s="47"/>
+      <c r="L7" s="48">
         <f t="shared" ref="L6:L11" si="0">J7*H7</f>
         <v>964500</v>
       </c>
@@ -1750,24 +1755,24 @@
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30" t="s">
+      <c r="F8" s="30"/>
+      <c r="G8" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="32">
         <v>4</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="43">
+      <c r="J8" s="46">
         <v>218900</v>
       </c>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45">
+      <c r="K8" s="47"/>
+      <c r="L8" s="48">
         <f t="shared" si="0"/>
         <v>875600</v>
       </c>
@@ -1776,24 +1781,24 @@
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30" t="s">
+      <c r="F9" s="30"/>
+      <c r="G9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="32">
         <v>4</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="46">
         <v>32330</v>
       </c>
-      <c r="K9" s="44"/>
-      <c r="L9" s="45">
+      <c r="K9" s="47"/>
+      <c r="L9" s="48">
         <f t="shared" si="0"/>
         <v>129320</v>
       </c>
@@ -1802,24 +1807,24 @@
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30" t="s">
+      <c r="F10" s="30"/>
+      <c r="G10" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="32">
         <v>4</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="46">
         <v>34900</v>
       </c>
-      <c r="K10" s="44"/>
-      <c r="L10" s="45">
+      <c r="K10" s="47"/>
+      <c r="L10" s="48">
         <f t="shared" si="0"/>
         <v>139600</v>
       </c>
@@ -1828,22 +1833,22 @@
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="30" t="s">
+      <c r="F11" s="34"/>
+      <c r="G11" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="32">
         <v>1</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="45">
+      <c r="J11" s="46"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1854,455 +1859,480 @@
       <c r="D12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30" t="s">
+      <c r="F12" s="30"/>
+      <c r="G12" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="32">
         <v>1</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="43">
-        <v>70000</v>
-      </c>
-      <c r="K12" s="44">
-        <v>30</v>
-      </c>
-      <c r="L12" s="45">
+      <c r="J12" s="46">
+        <v>60000</v>
+      </c>
+      <c r="K12" s="47">
+        <v>160</v>
+      </c>
+      <c r="L12" s="48">
         <f>J12*H12*K12</f>
-        <v>2100000</v>
+        <v>9600000</v>
       </c>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30" t="s">
+      <c r="F13" s="30"/>
+      <c r="G13" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="32">
         <v>1</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="43">
-        <v>70000</v>
-      </c>
-      <c r="K13" s="44">
-        <v>30</v>
-      </c>
-      <c r="L13" s="45">
-        <f t="shared" ref="L13:L16" si="1">J13*H13*K13</f>
-        <v>2100000</v>
+      <c r="J13" s="46">
+        <v>60000</v>
+      </c>
+      <c r="K13" s="47">
+        <v>160</v>
+      </c>
+      <c r="L13" s="48">
+        <f>J13*H13*K13</f>
+        <v>9600000</v>
       </c>
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30" t="s">
+      <c r="F14" s="30"/>
+      <c r="G14" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="32">
         <v>1</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="43">
-        <v>70000</v>
-      </c>
-      <c r="K14" s="44">
-        <v>30</v>
-      </c>
-      <c r="L14" s="45">
-        <f t="shared" si="1"/>
-        <v>2100000</v>
+      <c r="J14" s="46">
+        <v>60000</v>
+      </c>
+      <c r="K14" s="47">
+        <v>160</v>
+      </c>
+      <c r="L14" s="48">
+        <f>J14*H14*K14</f>
+        <v>9600000</v>
       </c>
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="30" t="s">
+      <c r="F15" s="34"/>
+      <c r="G15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="32">
         <v>1</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="43">
-        <v>50000</v>
-      </c>
-      <c r="K15" s="44">
-        <v>30</v>
-      </c>
-      <c r="L15" s="45">
-        <f t="shared" si="1"/>
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" spans="2:12">
+      <c r="J15" s="46">
+        <v>60000</v>
+      </c>
+      <c r="K15" s="47">
+        <v>160</v>
+      </c>
+      <c r="L15" s="48">
+        <f>J15*H15*K15</f>
+        <v>9600000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
       <c r="B16" s="5"/>
       <c r="C16" s="11"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30" t="s">
+      <c r="F16" s="36"/>
+      <c r="G16" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="32">
         <v>1</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="43">
-        <v>70000</v>
-      </c>
-      <c r="K16" s="44">
-        <v>15</v>
-      </c>
-      <c r="L16" s="45">
+      <c r="J16" s="46">
+        <v>60000</v>
+      </c>
+      <c r="K16" s="47">
+        <v>160</v>
+      </c>
+      <c r="L16" s="48">
+        <f>J16*H16*K16</f>
+        <v>9600000</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" spans="2:12">
+      <c r="B17" s="5"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="32">
+        <v>1</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="46">
+        <v>60000</v>
+      </c>
+      <c r="K17" s="47">
+        <v>160</v>
+      </c>
+      <c r="L17" s="48">
+        <f>J17*H17*K17</f>
+        <v>9600000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="13"/>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="32">
+        <v>1</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="46">
+        <v>60000</v>
+      </c>
+      <c r="K18" s="47"/>
+      <c r="L18" s="48">
+        <f>J18*H18</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="13"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="32">
+        <v>1</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="46">
+        <v>80000</v>
+      </c>
+      <c r="K19" s="47"/>
+      <c r="L19" s="48">
+        <f t="shared" ref="L19:L22" si="1">J19*H19</f>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="13"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="32">
+        <v>1</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="46">
+        <v>100000</v>
+      </c>
+      <c r="K20" s="47"/>
+      <c r="L20" s="48">
         <f t="shared" si="1"/>
-        <v>1050000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="12"/>
-      <c r="C17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="30" t="s">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="13"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="32">
+        <v>1</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="46">
+        <v>900000</v>
+      </c>
+      <c r="K21" s="47"/>
+      <c r="L21" s="48">
+        <f t="shared" si="1"/>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" spans="2:12">
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H22" s="32">
         <v>1</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I22" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="43">
-        <v>60000</v>
-      </c>
-      <c r="K17" s="44"/>
-      <c r="L17" s="45">
-        <f>J17*H17</f>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="12"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="30" t="s">
+      <c r="J22" s="46">
+        <v>150000</v>
+      </c>
+      <c r="K22" s="47"/>
+      <c r="L22" s="48">
+        <f t="shared" si="1"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="32">
+        <v>1</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="46">
+        <v>150000</v>
+      </c>
+      <c r="K23" s="47">
+        <v>160</v>
+      </c>
+      <c r="L23" s="48">
+        <f t="shared" ref="L23:L27" si="2">J23*H23*K23</f>
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="32">
+        <v>1</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="46">
+        <v>38000</v>
+      </c>
+      <c r="K24" s="47">
+        <v>160</v>
+      </c>
+      <c r="L24" s="48">
+        <f t="shared" si="2"/>
+        <v>6080000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="32">
+        <v>1</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="46">
+        <v>38000</v>
+      </c>
+      <c r="K25" s="47">
+        <v>160</v>
+      </c>
+      <c r="L25" s="48">
+        <f t="shared" si="2"/>
+        <v>6080000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="32">
+        <v>1</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="46">
+        <v>38000</v>
+      </c>
+      <c r="K26" s="47">
+        <v>160</v>
+      </c>
+      <c r="L26" s="48">
+        <f t="shared" si="2"/>
+        <v>6080000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="30"/>
+      <c r="G27" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="32">
+        <v>1</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="46">
+        <v>38000</v>
+      </c>
+      <c r="K27" s="47">
+        <v>160</v>
+      </c>
+      <c r="L27" s="48">
+        <f t="shared" si="2"/>
+        <v>6080000</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" spans="2:12">
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="38"/>
+      <c r="G28" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H28" s="40">
         <v>1</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I28" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="43">
-        <v>80000</v>
-      </c>
-      <c r="K18" s="44"/>
-      <c r="L18" s="45">
-        <f t="shared" ref="L18:L21" si="2">J18*H18</f>
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="12"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="31">
-        <v>1</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="43">
-        <v>100000</v>
-      </c>
-      <c r="K19" s="44"/>
-      <c r="L19" s="45">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="12"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="31">
-        <v>1</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="43">
-        <v>900000</v>
-      </c>
-      <c r="K20" s="44"/>
-      <c r="L20" s="45">
-        <f t="shared" si="2"/>
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" spans="2:12">
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="31">
-        <v>1</v>
-      </c>
-      <c r="I21" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="43">
-        <v>150000</v>
-      </c>
-      <c r="K21" s="44"/>
-      <c r="L21" s="45">
-        <f t="shared" si="2"/>
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="31">
-        <v>1</v>
-      </c>
-      <c r="I22" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="43">
-        <v>90000</v>
-      </c>
-      <c r="K22" s="44">
-        <v>5</v>
-      </c>
-      <c r="L22" s="45">
-        <f t="shared" ref="L22:L26" si="3">J22*H22*K22</f>
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="31">
-        <v>1</v>
-      </c>
-      <c r="I23" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="43">
-        <v>30000</v>
-      </c>
-      <c r="K23" s="44">
-        <v>5</v>
-      </c>
-      <c r="L23" s="45">
-        <f t="shared" si="3"/>
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="31">
-        <v>1</v>
-      </c>
-      <c r="I24" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="43">
-        <v>30000</v>
-      </c>
-      <c r="K24" s="44">
-        <v>5</v>
-      </c>
-      <c r="L24" s="45">
-        <f t="shared" si="3"/>
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="31">
-        <v>1</v>
-      </c>
-      <c r="I25" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" s="43">
-        <v>30000</v>
-      </c>
-      <c r="K25" s="44">
-        <v>5</v>
-      </c>
-      <c r="L25" s="45">
-        <f t="shared" si="3"/>
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="31">
-        <v>1</v>
-      </c>
-      <c r="I26" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="43">
-        <v>30000</v>
-      </c>
-      <c r="K26" s="44">
-        <v>5</v>
-      </c>
-      <c r="L26" s="45">
-        <f t="shared" si="3"/>
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" spans="2:12">
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="37">
-        <v>1</v>
-      </c>
-      <c r="I27" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="46">
+      <c r="J28" s="49">
         <v>433900</v>
       </c>
-      <c r="K27" s="47"/>
-      <c r="L27" s="48">
-        <f>J27*H27</f>
+      <c r="K28" s="50"/>
+      <c r="L28" s="51">
+        <f>J28*H28</f>
         <v>433900</v>
       </c>
     </row>
-    <row r="28" ht="18.75" spans="10:12">
-      <c r="J28" s="49"/>
-      <c r="L28" s="50">
-        <f>SUM(L5:L26)</f>
-        <v>35502039</v>
-      </c>
-    </row>
-    <row r="29" spans="10:10">
-      <c r="J29"/>
+    <row r="29" ht="18.75" spans="10:12">
+      <c r="J29" s="52"/>
+      <c r="L29" s="53">
+        <f>SUM(L5:L27)</f>
+        <v>164676560</v>
+      </c>
     </row>
     <row r="30" spans="10:10">
       <c r="J30"/>
@@ -2330,6 +2360,9 @@
     </row>
     <row r="38" spans="10:10">
       <c r="J38"/>
+    </row>
+    <row r="39" spans="10:10">
+      <c r="J39"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -2345,22 +2378,22 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B4:B21"/>
-    <mergeCell ref="C4:C16"/>
-    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B4:B22"/>
+    <mergeCell ref="C4:C17"/>
+    <mergeCell ref="C18:C22"/>
     <mergeCell ref="D5:D11"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="B22:C27"/>
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="B23:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
